--- a/commerce_estate/Etagi/data/Sales.xlsx
+++ b/commerce_estate/Etagi/data/Sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,87 +456,676 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>action_sl</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>address</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>latitude</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>longitude</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>price_m2</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>square</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>scrape_date</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>parking</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>metro_station</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>time_to_metro</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>old_price</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>floor</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>floors</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>location</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>main_photo_ur</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Дата закрытия</t>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>sale_date</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>10056376</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://spb.etagi.com/realty/10056376</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>offices</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>office</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>sale</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург город, Центральный район, Старорусская улица, 5к.3</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Санкт Петербург</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>59.932626</v>
+      </c>
+      <c r="I2" t="n">
+        <v>30.384311</v>
+      </c>
+      <c r="J2" t="n">
+        <v>16500000</v>
+      </c>
+      <c r="K2" t="n">
+        <v>171875</v>
+      </c>
+      <c r="L2" t="n">
+        <v>96</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>18_10_2023</t>
+        </is>
+      </c>
+      <c r="N2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Площадь Александра Невского - 1</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>6</v>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>living</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>https://cdn.esoft.digital/19201080/cluster/photos/64/82/949abfe91827b638223aaa1a36005f513d608264.jpeg</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>10045398</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://spb.etagi.com/realty/10045398</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>offices</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>dev</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>sale</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Ленинградская область город, Шлиссельбург г район, Чекалова ул улица, 3</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Санкт Петербург</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>59.97939</v>
+      </c>
+      <c r="I3" t="n">
+        <v>31.025609</v>
+      </c>
+      <c r="J3" t="n">
+        <v>93000000</v>
+      </c>
+      <c r="K3" t="n">
+        <v>14768.9</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6297</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>18_10_2023</t>
+        </is>
+      </c>
+      <c r="N3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>detached</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>https://cdn.esoft.digital/19201080/cluster/photos/28/0f/7840979ec4d345fb5c415cd560d0ad1d76eb0f28.jpeg</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>9841430</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://spb.etagi.com/realty/9841430</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>offices</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>office</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>sale</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Ленинградская область город, Коммунар г район, Территория Промзона-3 улица, 8</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Санкт Петербург</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>59.609623</v>
+      </c>
+      <c r="I4" t="n">
+        <v>30.404749</v>
+      </c>
+      <c r="J4" t="n">
+        <v>14500000</v>
+      </c>
+      <c r="K4" t="n">
+        <v>60091.2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>241.3</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>18_10_2023</t>
+        </is>
+      </c>
+      <c r="N4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>detached</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>https://cdn.esoft.digital/19201080/cluster/photos/5b/73/39243468c7aa373e1769f2b095d0b75164af735b.jpeg</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>7424457</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://spb.etagi.com/realty/7424457</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>offices</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>office</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>sale</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург город, Адмиралтейский район, Большая Морская улица, 56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Санкт Петербург</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>59.931233</v>
+      </c>
+      <c r="I5" t="n">
+        <v>30.303633</v>
+      </c>
+      <c r="J5" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="K5" t="n">
+        <v>244300</v>
+      </c>
+      <c r="L5" t="n">
+        <v>61.4</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>18_10_2023</t>
+        </is>
+      </c>
+      <c r="N5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="n">
+        <v>16000000</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>living</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>https://cdn.esoft.digital/19201080/cluster/photos/80/72/20bd1d241f4ca8775543321fde34286883357280.jpeg</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>10056376</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://spb.etagi.com/realty/10056376</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>offices</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>office</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>sale</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург город, Центральный район, Старорусская улица, 5к.3</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Санкт Петербург</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>59.932626</v>
+      </c>
+      <c r="I6" t="n">
+        <v>30.384311</v>
+      </c>
+      <c r="J6" t="n">
+        <v>16500000</v>
+      </c>
+      <c r="K6" t="n">
+        <v>171875</v>
+      </c>
+      <c r="L6" t="n">
+        <v>96</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>19_10_2023</t>
+        </is>
+      </c>
+      <c r="N6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Площадь Александра Невского - 1</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>6</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>living</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>https://cdn.esoft.digital/19201080/cluster/photos/64/82/949abfe91827b638223aaa1a36005f513d608264.jpeg</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>8991528</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://spb.etagi.com/realty/8991528</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>offices</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>dev</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>sale</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург город, Василеостровский район, Уральская улица, 6</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Санкт Петербург</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>59.95129</v>
+      </c>
+      <c r="I7" t="n">
+        <v>30.265005</v>
+      </c>
+      <c r="J7" t="n">
+        <v>41000000</v>
+      </c>
+      <c r="K7" t="n">
+        <v>325139</v>
+      </c>
+      <c r="L7" t="n">
+        <v>126.1</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>18_10_2023</t>
+        </is>
+      </c>
+      <c r="N7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>10</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>living</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>https://cdn.esoft.digital/19201080/cluster/photos/e9/80/4c1629f4d5190757f029fed728f2f64eceb980e9.jpeg</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>23/10/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>10107762</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://spb.etagi.com/realty/10107762</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>offices</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>office</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>sale</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург город, Невский район, Товарищеский проспект улица, 8а</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Санкт Петербург</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>120000000</v>
+      </c>
+      <c r="K8" t="n">
+        <v>480000</v>
+      </c>
+      <c r="L8" t="n">
+        <v>250</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>23_10_2023</t>
+        </is>
+      </c>
+      <c r="N8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>detached</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>https://cdn.esoft.digital/19201080/cluster/photos/50/95/b39a80a7e10deafc9842063dd6dcd50339739550.jpeg</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>24/10/2023</t>
         </is>
       </c>
     </row>

--- a/commerce_estate/Etagi/data/Sales.xlsx
+++ b/commerce_estate/Etagi/data/Sales.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1129,6 +1129,94 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>10056376</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://spb.etagi.com/realty/10056376</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>offices</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>office</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>sale</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург город, Центральный район, Старорусская улица, 5к.3</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Санкт Петербург</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>59.932626</v>
+      </c>
+      <c r="I9" t="n">
+        <v>30.384311</v>
+      </c>
+      <c r="J9" t="n">
+        <v>16500000</v>
+      </c>
+      <c r="K9" t="n">
+        <v>171875</v>
+      </c>
+      <c r="L9" t="n">
+        <v>96</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>23_10_2023</t>
+        </is>
+      </c>
+      <c r="N9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Площадь Александра Невского - 1</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>6</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>living</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>https://cdn.esoft.digital/19201080/cluster/photos/64/82/949abfe91827b638223aaa1a36005f513d608264.jpeg</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>25/10/2023</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/commerce_estate/Etagi/data/Sales.xlsx
+++ b/commerce_estate/Etagi/data/Sales.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,6 +544,11 @@
           <t>sale_date</t>
         </is>
       </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>district</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -632,6 +637,7 @@
           <t>17/10/2023</t>
         </is>
       </c>
+      <c r="W2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -714,6 +720,7 @@
           <t>17/10/2023</t>
         </is>
       </c>
+      <c r="W3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -796,6 +803,7 @@
           <t>17/10/2023</t>
         </is>
       </c>
+      <c r="W4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -880,6 +888,7 @@
           <t>17/10/2023</t>
         </is>
       </c>
+      <c r="W5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -968,6 +977,7 @@
           <t>17/10/2023</t>
         </is>
       </c>
+      <c r="W6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1050,6 +1060,7 @@
           <t>23/10/2023</t>
         </is>
       </c>
+      <c r="W7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1128,6 +1139,7 @@
           <t>24/10/2023</t>
         </is>
       </c>
+      <c r="W8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1214,6 +1226,1142 @@
       <c r="V9" t="inlineStr">
         <is>
           <t>25/10/2023</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9513331</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://spb.etagi.com/realty/9513331</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>offices</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>sale</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург город, Адмиралтейский район, Набережная реки Фонтанки улица, 139</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Санкт Петербург</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>59.918638</v>
+      </c>
+      <c r="I10" t="n">
+        <v>30.302205</v>
+      </c>
+      <c r="J10" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="K10" t="n">
+        <v>127298</v>
+      </c>
+      <c r="L10" t="n">
+        <v>70.7</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>18_10_2023</t>
+        </is>
+      </c>
+      <c r="N10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Технологический институт-1</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>9990000</v>
+      </c>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>living</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>https://cdn.esoft.digital/19201080/cluster/photos/df/be/8c3b9be82b6300d5ad3c51e4a12861b4326abedf.jpeg</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>25/10/2023</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10056376</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://spb.etagi.com/realty/10056376</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>offices</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>office</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>sale</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург город, Центральный район, Старорусская улица, 5к</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>59.932626</v>
+      </c>
+      <c r="I11" t="n">
+        <v>30.384311</v>
+      </c>
+      <c r="J11" t="n">
+        <v>16500000</v>
+      </c>
+      <c r="K11" t="n">
+        <v>171875</v>
+      </c>
+      <c r="L11" t="n">
+        <v>96</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>25_10_2023</t>
+        </is>
+      </c>
+      <c r="N11" t="b">
+        <v>0</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Площадь Александра Невского - 1</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>6</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>living</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>https://cdn.esoft.digital/19201080/cluster/photos/64/82/949abfe91827b638223aaa1a36005f513d608264.jpeg</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>26/10/2023</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Центральный</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>8881027</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://spb.etagi.com/realty/8881027</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>offices</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>sale</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург город, Центральный район, Рылеева улица, 10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Санкт Петербург</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>59.942584</v>
+      </c>
+      <c r="I12" t="n">
+        <v>30.358026</v>
+      </c>
+      <c r="J12" t="n">
+        <v>73000000</v>
+      </c>
+      <c r="K12" t="n">
+        <v>154989</v>
+      </c>
+      <c r="L12" t="n">
+        <v>471</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>18_10_2023</t>
+        </is>
+      </c>
+      <c r="N12" t="b">
+        <v>0</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Чернышевская</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>living</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>https://cdn.esoft.digital/19201080/cluster/photos/76/c8/da61dd5f0925712c53f2e66b3f31a1bac7e8c876.jpeg</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>28/10/2023</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>9083008</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://spb.etagi.com/realty/9083008</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>offices</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>office</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>sale</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург город, Центральный район, Рылеева улица, 10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Санкт Петербург</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>59.942602</v>
+      </c>
+      <c r="I13" t="n">
+        <v>30.357972</v>
+      </c>
+      <c r="J13" t="n">
+        <v>59650000</v>
+      </c>
+      <c r="K13" t="n">
+        <v>128280</v>
+      </c>
+      <c r="L13" t="n">
+        <v>465</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>18_10_2023</t>
+        </is>
+      </c>
+      <c r="N13" t="b">
+        <v>0</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Чернышевская</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>60000000</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>living</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>https://cdn.esoft.digital/19201080/cluster/photos/d8/a8/cdc09e6a765443f44212f8123d62c67c704ea8d8.jpeg</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>28/10/2023</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>7434953</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://spb.etagi.com/realty/7434953</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>offices</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>lease</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург город, Невский район, Архивная улица, 9к.1</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Санкт Петербург</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>59.903138</v>
+      </c>
+      <c r="I14" t="n">
+        <v>30.447139</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100000</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1040.58</v>
+      </c>
+      <c r="L14" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>18_10_2023</t>
+        </is>
+      </c>
+      <c r="N14" t="b">
+        <v>0</v>
+      </c>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" t="n">
+        <v>25</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>living</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>https://cdn.esoft.digital/19201080/cluster/photos/3b/22/0b7f27ae53e8584010ea8d196704ae1ff697223b.png</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>28/10/2023</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>7061801</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://spb.etagi.com/realty/7061801</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>offices</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>torg</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>lease</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург город, Фрунзенский район, Малая Бухарестская улица, 12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Санкт Петербург</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>59.847268</v>
+      </c>
+      <c r="I15" t="n">
+        <v>30.41554</v>
+      </c>
+      <c r="J15" t="n">
+        <v>150000</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1630.43</v>
+      </c>
+      <c r="L15" t="n">
+        <v>92</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>18_10_2023</t>
+        </is>
+      </c>
+      <c r="N15" t="b">
+        <v>0</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Дунайская</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="n">
+        <v>13</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>living</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>https://cdn.esoft.digital/19201080/cluster/photos/da/9a/0b3587d89cd5fb1ed1151713558bf65afcf19ada.jpeg</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>28/10/2023</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>9556570</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://spb.etagi.com/realty/9556570</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>offices</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>sklad</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>lease</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Ленинградская область город, Коммунар г район, Антропшинская ул улица, 157</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Санкт Петербург</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>59.621609</v>
+      </c>
+      <c r="I16" t="n">
+        <v>30.393483</v>
+      </c>
+      <c r="J16" t="n">
+        <v>280000</v>
+      </c>
+      <c r="K16" t="n">
+        <v>270.793</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1034</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>18_10_2023</t>
+        </is>
+      </c>
+      <c r="N16" t="b">
+        <v>0</v>
+      </c>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>detached</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>https://cdn.esoft.digital/19201080/cluster/photos/cd/d1/bb3ef91287923896c1b5c6236da703e3d505d1cd.jpeg</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>31/10/2023</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>9137258</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://spb.etagi.com/realty/9137258</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>offices</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>sale</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург город, Адмиралтейский район, Измайловский бульвар улица, 4к.2</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Санкт Петербург</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>59.903927</v>
+      </c>
+      <c r="I17" t="n">
+        <v>30.306768</v>
+      </c>
+      <c r="J17" t="n">
+        <v>13990000</v>
+      </c>
+      <c r="K17" t="n">
+        <v>249821</v>
+      </c>
+      <c r="L17" t="n">
+        <v>56</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>18_10_2023</t>
+        </is>
+      </c>
+      <c r="N17" t="b">
+        <v>0</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Фрунзенская</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>10</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>living</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>https://cdn.esoft.digital/19201080/cluster/photos/4b/e9/6dbf97cb06a10e7227cad9c27c6b780dda25e94b.jpeg</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>2/11/2023</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>9985023</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://spb.etagi.com/realty/9985023</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>offices</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>sale</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург город, Фрунзенский район, Купчинская улица, 32</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Санкт Петербург</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>59.828916</v>
+      </c>
+      <c r="I18" t="n">
+        <v>30.399762</v>
+      </c>
+      <c r="J18" t="n">
+        <v>22500000</v>
+      </c>
+      <c r="K18" t="n">
+        <v>145443</v>
+      </c>
+      <c r="L18" t="n">
+        <v>154.7</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>18_10_2023</t>
+        </is>
+      </c>
+      <c r="N18" t="b">
+        <v>0</v>
+      </c>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>business</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>https://cdn.esoft.digital/19201080/cluster/photos/8f/e3/433f543afd6d814d2b12b1170418e6ad0c77e38f.jpeg</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>4/11/2023</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>9817310</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://spb.etagi.com/realty/9817310</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>offices</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>sklad</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>sale</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург город, Невский район, Октябрьская набережная улица, корпус 1 этап 1</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Санкт Петербург</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>59.872578</v>
+      </c>
+      <c r="I19" t="n">
+        <v>30.479029</v>
+      </c>
+      <c r="J19" t="n">
+        <v>400000</v>
+      </c>
+      <c r="K19" t="n">
+        <v>133333</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>18_10_2023</t>
+        </is>
+      </c>
+      <c r="N19" t="b">
+        <v>0</v>
+      </c>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>18</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>living</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>https://cdn.esoft.digital/19201080/cluster/photos/f3/8a/aee69b7c69459c770a5833f9231d9d7dbfcf8af3.jpeg</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>6/11/2023</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>10163674</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://spb.etagi.com/realty/10163674</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>offices</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>torg</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>sale</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Санкт-Петербург город, Центральный район, Набережная Обводного канала улица, </t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>59.913866</v>
+      </c>
+      <c r="I20" t="n">
+        <v>30.355807</v>
+      </c>
+      <c r="J20" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="K20" t="n">
+        <v>88781.3</v>
+      </c>
+      <c r="L20" t="n">
+        <v>123.9</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>3_11_2023</t>
+        </is>
+      </c>
+      <c r="N20" t="b">
+        <v>0</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Обводный канал</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>living</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>https://cdn.esoft.digital/19201080/cluster/photos/2c/c3/f1985a433065dac3ddbcae52456aa4555b17c32c.jpeg</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>6/11/2023</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Центральный</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>8217739</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://spb.etagi.com/realty/8217739</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>offices</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>sale</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург город, Кировский район, Стачек проспект улица, 216</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Санкт Петербург</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>59.846576</v>
+      </c>
+      <c r="I21" t="n">
+        <v>30.222928</v>
+      </c>
+      <c r="J21" t="n">
+        <v>23000000</v>
+      </c>
+      <c r="K21" t="n">
+        <v>156250</v>
+      </c>
+      <c r="L21" t="n">
+        <v>147.2</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>18_10_2023</t>
+        </is>
+      </c>
+      <c r="N21" t="b">
+        <v>0</v>
+      </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>9</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>living</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>https://cdn.esoft.digital/19201080/cluster/photos/b3/16/743768f6bcc3f23c2229357ca06ec3ed750916b3.jpeg</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>7/11/2023</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>10173521</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://spb.etagi.com/realty/10173521</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>offices</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>sklad</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>sale</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Санкт-Петербург город, Приморский район, Приморский пр улица, </t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>60.017715</v>
+      </c>
+      <c r="I22" t="n">
+        <v>30.185145</v>
+      </c>
+      <c r="J22" t="n">
+        <v>700000</v>
+      </c>
+      <c r="K22" t="n">
+        <v>148936</v>
+      </c>
+      <c r="L22" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>8_11_2023</t>
+        </is>
+      </c>
+      <c r="N22" t="b">
+        <v>0</v>
+      </c>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S22" t="n">
+        <v>12</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>living</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>https://cdn.esoft.digital/19201080/cluster/photos/bd/d8/61de877b8b8c710083a852ddb54efced1a45d8bd.jpeg</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>9/11/2023</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Приморский</t>
         </is>
       </c>
     </row>

--- a/commerce_estate/Etagi/data/Sales.xlsx
+++ b/commerce_estate/Etagi/data/Sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W22"/>
+  <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2365,6 +2365,279 @@
         </is>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>10178503</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://spb.etagi.com/realty/10178503</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>offices</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>torg</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>sale</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Санкт-Петербург город, Московский район, Варшавская улица, </t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>59.860012</v>
+      </c>
+      <c r="I23" t="n">
+        <v>30.314709</v>
+      </c>
+      <c r="J23" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="K23" t="n">
+        <v>508475</v>
+      </c>
+      <c r="L23" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>7_11_2023</t>
+        </is>
+      </c>
+      <c r="N23" t="b">
+        <v>0</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Парк Победы</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>living</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>https://cdn.esoft.digital/19201080/cluster/photos/97/83/e46965235c97665434db9ccc0a85a282fa348397.jpeg</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Московский</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>10056376</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://spb.etagi.com/realty/10056376</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>offices</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>office</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>sale</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург город, Центральный район, Старорусская улица, 5к</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>59.932626</v>
+      </c>
+      <c r="I24" t="n">
+        <v>30.384311</v>
+      </c>
+      <c r="J24" t="n">
+        <v>16500000</v>
+      </c>
+      <c r="K24" t="n">
+        <v>171875</v>
+      </c>
+      <c r="L24" t="n">
+        <v>96</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>8_11_2023</t>
+        </is>
+      </c>
+      <c r="N24" t="b">
+        <v>0</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Площадь Александра Невского - 1</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>6</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>living</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>https://cdn.esoft.digital/19201080/cluster/photos/64/82/949abfe91827b638223aaa1a36005f513d608264.jpeg</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Центральный</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10191632</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://spb.etagi.com/realty/10191632</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>offices</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>office</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>sale</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Санкт-Петербург город, Московский район, Алтайская улица, </t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>59.84979</v>
+      </c>
+      <c r="I25" t="n">
+        <v>30.333852</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1600000</v>
+      </c>
+      <c r="K25" t="n">
+        <v>114286</v>
+      </c>
+      <c r="L25" t="n">
+        <v>14</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>9_11_2023</t>
+        </is>
+      </c>
+      <c r="N25" t="b">
+        <v>0</v>
+      </c>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>1</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>living</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>https://cdn.esoft.digital/19201080/cluster/photos/26/67/2895dbcb901aa98e3e51a45e3bfde52e59526726.jpeg</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Московский</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
